--- a/examples/wangetal2018/out/NetworkFiles/AC_0.2_a_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/AC_0.2_a_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="80">
   <si>
     <t>pipe_name</t>
   </si>
@@ -51,22 +51,28 @@
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02</t>
-  </si>
-  <si>
-    <t>PI03</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_0</t>
+    <t>PI02_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI02_remaining</t>
+  </si>
+  <si>
+    <t>PI03_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI03_remaining</t>
   </si>
   <si>
     <t>PI04_pre_C_1_1</t>
   </si>
   <si>
+    <t>PI04_pre_C_1_2</t>
+  </si>
+  <si>
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_2</t>
+    <t>PI05_pre_C_1_3</t>
   </si>
   <si>
     <t>PI05_remaining</t>
@@ -81,7 +87,7 @@
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09</t>
+    <t>PI09_remaining</t>
   </si>
   <si>
     <t>N01</t>
@@ -93,22 +99,28 @@
     <t>N02</t>
   </si>
   <si>
+    <t>N_post_C_0_1</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N_post_C_1_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
-    <t>N_post_C_1_0</t>
-  </si>
-  <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
+    <t>N_post_C_1_2</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
-    <t>N_post_C_1_2</t>
+    <t>N_post_C_1_3</t>
   </si>
   <si>
     <t>N06_C</t>
@@ -120,33 +132,42 @@
     <t>N08_C</t>
   </si>
   <si>
+    <t>N_post_C_3_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_2</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N07</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
     <t>N09</t>
   </si>
   <si>
-    <t>N_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>N03</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_0</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_1</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>N06</t>
-  </si>
-  <si>
-    <t>N07</t>
-  </si>
-  <si>
-    <t>N08</t>
-  </si>
-  <si>
     <t>N10</t>
   </si>
   <si>
@@ -180,6 +201,9 @@
     <t>C_0_0</t>
   </si>
   <si>
+    <t>C_0_1</t>
+  </si>
+  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -192,6 +216,9 @@
     <t>C_1_2</t>
   </si>
   <si>
+    <t>C_1_3</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -199,6 +226,9 @@
   </si>
   <si>
     <t>CS3</t>
+  </si>
+  <si>
+    <t>C_3_0</t>
   </si>
   <si>
     <t>supply_name</t>
@@ -586,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,16 +653,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>641.35</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="F2">
         <v>0.012</v>
@@ -641,7 +671,7 @@
         <v>9.525</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -649,16 +679,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>641.35</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="F3">
         <v>0.012</v>
@@ -667,7 +697,7 @@
         <v>9.525</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -675,16 +705,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>641.35</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="F4">
         <v>0.012</v>
@@ -693,7 +723,7 @@
         <v>9.525</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -701,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>641.35</v>
       </c>
       <c r="E5">
-        <v>31.5</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="F5">
         <v>0.012</v>
@@ -719,7 +749,7 @@
         <v>9.525</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -727,16 +757,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>641.35</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>0.012</v>
@@ -745,7 +775,7 @@
         <v>9.525</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -753,16 +783,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>641.35</v>
       </c>
       <c r="E7">
-        <v>32.5</v>
+        <v>5.5</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -771,7 +801,7 @@
         <v>9.525</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -779,16 +809,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>20.5</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -797,7 +827,7 @@
         <v>9.525</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -805,16 +835,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>641.35</v>
       </c>
       <c r="E9">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -823,7 +853,7 @@
         <v>9.525</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -831,16 +861,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>641.35</v>
       </c>
       <c r="E10">
-        <v>32.5</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0.012</v>
@@ -849,7 +879,7 @@
         <v>9.525</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -857,16 +887,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>641.35</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <v>0.012</v>
@@ -875,7 +905,7 @@
         <v>9.525</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -883,16 +913,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>641.35</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>0.012</v>
@@ -901,7 +931,7 @@
         <v>9.525</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -909,10 +939,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>641.35</v>
@@ -927,7 +957,7 @@
         <v>9.525</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -935,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>641.35</v>
@@ -953,7 +983,59 @@
         <v>9.525</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>641.35</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>0.012</v>
+      </c>
+      <c r="G15">
+        <v>9.525</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>641.35</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>0.012</v>
+      </c>
+      <c r="G16">
+        <v>9.525</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +1045,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -971,186 +1053,226 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B13">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B22">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>4.71984827318464</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1290,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1177,33 +1299,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1220,19 +1342,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E3">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1246,19 +1368,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1272,16 +1394,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1298,16 +1420,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1324,19 +1446,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1350,16 +1472,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1376,16 +1498,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E9">
         <v>12.5</v>
@@ -1397,6 +1519,84 @@
         <v>0.78</v>
       </c>
       <c r="H9">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.78</v>
+      </c>
+      <c r="H10">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E11">
+        <v>12.5</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.78</v>
+      </c>
+      <c r="H11">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.78</v>
+      </c>
+      <c r="H12">
         <v>0.357</v>
       </c>
     </row>
@@ -1415,27 +1615,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
   </sheetData>
@@ -1453,21 +1653,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -1475,10 +1675,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -1486,10 +1686,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -1510,15 +1710,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -1526,7 +1726,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>0.2</v>

--- a/examples/wangetal2018/out/NetworkFiles/AC_0.2_a_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/AC_0.2_a_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="116">
   <si>
     <t>pipe_name</t>
   </si>
@@ -45,16 +45,28 @@
     <t>steel_grade</t>
   </si>
   <si>
-    <t>PI01_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>PI01_remaining</t>
-  </si>
-  <si>
-    <t>PI02_pre_C_0_1</t>
-  </si>
-  <si>
-    <t>PI02_remaining</t>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>PI01_1_remaining</t>
+  </si>
+  <si>
+    <t>PI01</t>
+  </si>
+  <si>
+    <t>PI02_0_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI02_0_remaining</t>
+  </si>
+  <si>
+    <t>PI02</t>
+  </si>
+  <si>
+    <t>PI03_0</t>
   </si>
   <si>
     <t>PI03_pre_C_1_0</t>
@@ -63,7 +75,13 @@
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_1</t>
+    <t>PI04_0_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>PI04_0_remaining</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
   </si>
   <si>
     <t>PI04_pre_C_1_2</t>
@@ -72,39 +90,84 @@
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_3</t>
-  </si>
-  <si>
-    <t>PI05_remaining</t>
+    <t>PI05_0_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI05_0_remaining</t>
+  </si>
+  <si>
+    <t>PI05_1_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>PI05_1_remaining</t>
+  </si>
+  <si>
+    <t>PI05</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
   </si>
   <si>
     <t>PI06</t>
   </si>
   <si>
-    <t>PI07_remaining</t>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
   </si>
   <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09_remaining</t>
+    <t>PI09_0_remaining</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
     <t>N_post_C_0_1</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_0</t>
   </si>
   <si>
@@ -114,6 +177,12 @@
     <t>N_post_C_1_1</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N_post_C_1_2</t>
   </si>
   <si>
@@ -123,18 +192,51 @@
     <t>N_post_C_1_3</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N_post_C_1_4</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_3_0</t>
   </si>
   <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N_pre_C_0_0</t>
   </si>
   <si>
@@ -156,6 +258,9 @@
     <t>N_pre_C_1_3</t>
   </si>
   <si>
+    <t>N_pre_C_1_4</t>
+  </si>
+  <si>
     <t>N06</t>
   </si>
   <si>
@@ -217,6 +322,9 @@
   </si>
   <si>
     <t>C_1_3</t>
+  </si>
+  <si>
+    <t>C_1_4</t>
   </si>
   <si>
     <t>CS2</t>
@@ -616,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,16 +761,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>641.35</v>
       </c>
       <c r="E2">
-        <v>23.33333333333333</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F2">
         <v>0.012</v>
@@ -671,7 +779,7 @@
         <v>9.525</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -679,16 +787,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>641.35</v>
       </c>
       <c r="E3">
-        <v>16.66666666666667</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="F3">
         <v>0.012</v>
@@ -697,7 +805,7 @@
         <v>9.525</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -705,16 +813,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>641.35</v>
       </c>
       <c r="E4">
-        <v>6.666666666666664</v>
+        <v>3.333333333333336</v>
       </c>
       <c r="F4">
         <v>0.012</v>
@@ -723,7 +831,7 @@
         <v>9.525</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -731,16 +839,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>641.35</v>
       </c>
       <c r="E5">
-        <v>23.33333333333334</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F5">
         <v>0.012</v>
@@ -749,7 +857,7 @@
         <v>9.525</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -757,16 +865,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>641.35</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="F6">
         <v>0.012</v>
@@ -775,7 +883,7 @@
         <v>9.525</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -783,16 +891,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>641.35</v>
       </c>
       <c r="E7">
-        <v>5.5</v>
+        <v>8.333333333333336</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -801,7 +909,7 @@
         <v>9.525</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -809,16 +917,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>20.5</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -827,7 +935,7 @@
         <v>9.525</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -835,16 +943,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>641.35</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>15.75</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -853,7 +961,7 @@
         <v>9.525</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -861,16 +969,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>641.35</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5.916666666666671</v>
       </c>
       <c r="F10">
         <v>0.012</v>
@@ -879,7 +987,7 @@
         <v>9.525</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -887,16 +995,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>641.35</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>9.833333333333329</v>
       </c>
       <c r="F11">
         <v>0.012</v>
@@ -905,7 +1013,7 @@
         <v>9.525</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -913,16 +1021,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>641.35</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>11.83333333333334</v>
       </c>
       <c r="F12">
         <v>0.012</v>
@@ -931,7 +1039,7 @@
         <v>9.525</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -939,16 +1047,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>641.35</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>4.333333333333329</v>
       </c>
       <c r="F13">
         <v>0.012</v>
@@ -957,7 +1065,7 @@
         <v>9.525</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -965,16 +1073,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>641.35</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="F14">
         <v>0.012</v>
@@ -983,7 +1091,7 @@
         <v>9.525</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -991,16 +1099,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <v>641.35</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>1.166666666666671</v>
       </c>
       <c r="F15">
         <v>0.012</v>
@@ -1009,7 +1117,7 @@
         <v>9.525</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1017,25 +1125,467 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>641.35</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>0.012</v>
+      </c>
+      <c r="G16">
+        <v>9.525</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17">
+        <v>641.35</v>
+      </c>
+      <c r="E17">
+        <v>6.666666666666671</v>
+      </c>
+      <c r="F17">
+        <v>0.012</v>
+      </c>
+      <c r="G17">
+        <v>9.525</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>641.35</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>0.012</v>
+      </c>
+      <c r="G18">
+        <v>9.525</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>641.35</v>
+      </c>
+      <c r="E19">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="F19">
+        <v>0.012</v>
+      </c>
+      <c r="G19">
+        <v>9.525</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>641.35</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>0.012</v>
+      </c>
+      <c r="G20">
+        <v>9.525</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <v>641.35</v>
+      </c>
+      <c r="E21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F21">
+        <v>0.012</v>
+      </c>
+      <c r="G21">
+        <v>9.525</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>641.35</v>
+      </c>
+      <c r="E22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F22">
+        <v>0.012</v>
+      </c>
+      <c r="G22">
+        <v>9.525</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>641.35</v>
+      </c>
+      <c r="E23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F23">
+        <v>0.012</v>
+      </c>
+      <c r="G23">
+        <v>9.525</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>641.35</v>
+      </c>
+      <c r="E24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F24">
+        <v>0.012</v>
+      </c>
+      <c r="G24">
+        <v>9.525</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>641.35</v>
+      </c>
+      <c r="E25">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F25">
+        <v>0.012</v>
+      </c>
+      <c r="G25">
+        <v>9.525</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>641.35</v>
+      </c>
+      <c r="E26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F26">
+        <v>0.012</v>
+      </c>
+      <c r="G26">
+        <v>9.525</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27">
+        <v>641.35</v>
+      </c>
+      <c r="E27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F27">
+        <v>0.012</v>
+      </c>
+      <c r="G27">
+        <v>9.525</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>641.35</v>
+      </c>
+      <c r="E28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F28">
+        <v>0.012</v>
+      </c>
+      <c r="G28">
+        <v>9.525</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>641.35</v>
+      </c>
+      <c r="E29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F29">
+        <v>0.012</v>
+      </c>
+      <c r="G29">
+        <v>9.525</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30">
+        <v>641.35</v>
+      </c>
+      <c r="E30">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F30">
+        <v>0.012</v>
+      </c>
+      <c r="G30">
+        <v>9.525</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16">
-        <v>641.35</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>0.012</v>
-      </c>
-      <c r="G16">
-        <v>9.525</v>
-      </c>
-      <c r="H16" t="s">
-        <v>50</v>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>641.35</v>
+      </c>
+      <c r="E31">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F31">
+        <v>0.012</v>
+      </c>
+      <c r="G31">
+        <v>9.525</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>641.35</v>
+      </c>
+      <c r="E32">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F32">
+        <v>0.012</v>
+      </c>
+      <c r="G32">
+        <v>9.525</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33">
+        <v>641.35</v>
+      </c>
+      <c r="E33">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F33">
+        <v>0.012</v>
+      </c>
+      <c r="G33">
+        <v>9.525</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1053,15 +1603,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>4.71984827318464</v>
@@ -1069,7 +1619,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>4.71984827318464</v>
@@ -1077,7 +1627,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>4.71984827318464</v>
@@ -1085,7 +1635,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>4.71984827318464</v>
@@ -1093,7 +1643,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>4.71984827318464</v>
@@ -1101,7 +1651,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>4.71984827318464</v>
@@ -1109,7 +1659,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>4.71984827318464</v>
@@ -1117,7 +1667,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>4.71984827318464</v>
@@ -1125,7 +1675,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>4.71984827318464</v>
@@ -1133,7 +1683,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>4.71984827318464</v>
@@ -1141,7 +1691,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>4.71984827318464</v>
@@ -1149,7 +1699,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>4.71984827318464</v>
@@ -1157,7 +1707,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>4.71984827318464</v>
@@ -1165,7 +1715,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>4.71984827318464</v>
@@ -1173,7 +1723,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>4.71984827318464</v>
@@ -1181,7 +1731,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>4.71984827318464</v>
@@ -1189,7 +1739,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>4.71984827318464</v>
@@ -1197,7 +1747,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>4.71984827318464</v>
@@ -1205,7 +1755,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>4.71984827318464</v>
@@ -1213,7 +1763,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>4.71984827318464</v>
@@ -1221,7 +1771,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>4.71984827318464</v>
@@ -1229,7 +1779,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>4.71984827318464</v>
@@ -1237,7 +1787,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B24">
         <v>4.71984827318464</v>
@@ -1245,7 +1795,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>4.71984827318464</v>
@@ -1253,7 +1803,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>4.71984827318464</v>
@@ -1261,7 +1811,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B27">
         <v>4.71984827318464</v>
@@ -1269,9 +1819,153 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B28">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46">
         <v>4.71984827318464</v>
       </c>
     </row>
@@ -1282,7 +1976,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1290,7 +1984,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1299,30 +1993,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>4.71984827318464</v>
@@ -1342,13 +2036,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>4.71984827318464</v>
@@ -1368,13 +2062,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>4.71984827318464</v>
@@ -1394,13 +2088,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>4.71984827318464</v>
@@ -1420,13 +2114,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>4.71984827318464</v>
@@ -1446,13 +2140,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>4.71984827318464</v>
@@ -1472,13 +2166,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>4.71984827318464</v>
@@ -1498,19 +2192,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>4.71984827318464</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1524,19 +2218,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>4.71984827318464</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1550,19 +2244,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>4.71984827318464</v>
       </c>
       <c r="E11">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1576,19 +2270,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>4.71984827318464</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1597,6 +2291,32 @@
         <v>0.78</v>
       </c>
       <c r="H12">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.78</v>
+      </c>
+      <c r="H13">
         <v>0.357</v>
       </c>
     </row>
@@ -1615,24 +2335,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>4.71984827318464</v>
@@ -1653,21 +2373,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -1675,10 +2395,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -1686,10 +2406,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -1710,15 +2430,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -1726,7 +2446,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>0.2</v>
